--- a/1_excel/sample_insert_cols.xlsx
+++ b/1_excel/sample_insert_cols.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,12 +427,12 @@
           <t>번호</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>영어</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
@@ -442,110 +442,110 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>85</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63</v>
+      <c r="B2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>78</v>
-      </c>
-      <c r="F3" t="n">
-        <v>56</v>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n">
-        <v>37</v>
+      <c r="B4" t="n">
+        <v>97</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
-        <v>97</v>
-      </c>
-      <c r="F5" t="n">
-        <v>99</v>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>77</v>
-      </c>
-      <c r="F6" t="n">
-        <v>74</v>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>75</v>
+      <c r="B7" t="n">
+        <v>83</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>79</v>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" t="n">
-        <v>15</v>
-      </c>
-      <c r="F9" t="n">
-        <v>54</v>
+      <c r="B9" t="n">
+        <v>56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
-        <v>19</v>
-      </c>
-      <c r="F10" t="n">
-        <v>71</v>
+      <c r="B10" t="n">
+        <v>77</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
-        <v>46</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+      <c r="B11" t="n">
+        <v>42</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
